--- a/MainTop/26.12.2025 макс ВБ/макс_мес с 25.11.2025 по 25.12.2025/p1.xlsx
+++ b/MainTop/26.12.2025 макс ВБ/макс_мес с 25.11.2025 по 25.12.2025/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Остатки склад ВБ, шт</t>
+          <t>Тип упорядочить</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Остатки МП, шт</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тип упорядочить</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Имя папки</t>
         </is>
@@ -482,26 +462,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>24</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -514,26 +482,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -546,26 +502,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" t="n">
         <v>12</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -578,26 +522,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -610,26 +542,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
         <v>8</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -642,26 +562,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
         <v>8</v>
       </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -674,26 +582,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -706,26 +602,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>30</v>
-      </c>
-      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -738,26 +622,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F10" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -770,26 +642,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -802,26 +662,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -834,26 +682,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -866,26 +702,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -898,26 +722,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -930,26 +742,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30</v>
-      </c>
-      <c r="F16" t="n">
         <v>72</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -962,26 +762,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
-      <c r="F17" t="n">
         <v>48</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -994,26 +782,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" t="n">
         <v>48</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1026,26 +802,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30</v>
-      </c>
-      <c r="F19" t="n">
         <v>32</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1058,58 +822,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>30</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" t="n">
         <v>24</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>макс_мес с 25.11.2025 по 25.12.2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Термонаклейка Черепашки Ниндзя классика</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" t="n">
-        <v>24</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
